--- a/public/files/FileMauDiemHocSinh.xlsx
+++ b/public/files/FileMauDiemHocSinh.xlsx
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -174,6 +174,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,9 +479,10 @@
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="6.5703125" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -528,8 +531,10 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="8"/>
+      <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -555,7 +560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
